--- a/8-line Olfactometer/8-line olfa hardware BOM.xlsx
+++ b/8-line Olfactometer/8-line olfa hardware BOM.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox (NYU Langone Health)\OlfactometerEngineeringGroup (2)\Design\OlfaControl_Electronics\8-line Olfactometer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shann\Dropbox (NYU Langone Health)\OlfactometerEngineeringGroup (2)\Design\OlfaControl_Electronics\8-line Olfactometer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAF6258-B818-48A7-A4AA-E292A769CBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26498C70-A5CA-4AF4-9588-F9022CD15ED2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26790" yWindow="-1140" windowWidth="25215" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23790" yWindow="-5550" windowWidth="22650" windowHeight="14385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="106">
   <si>
     <t>Item #</t>
   </si>
@@ -37,39 +36,15 @@
     <t>Part #</t>
   </si>
   <si>
-    <t>Link</t>
-  </si>
-  <si>
-    <t>manufactured</t>
-  </si>
-  <si>
     <t>McMaster-Carr</t>
   </si>
   <si>
     <t>5779K108</t>
   </si>
   <si>
-    <t>top cover</t>
-  </si>
-  <si>
-    <t>main manifold</t>
-  </si>
-  <si>
-    <t>main manifold cover</t>
-  </si>
-  <si>
-    <t>o-ring</t>
-  </si>
-  <si>
-    <t>screws</t>
-  </si>
-  <si>
     <t>4-40 x 1/4" screw</t>
   </si>
   <si>
-    <t>4-40 washer</t>
-  </si>
-  <si>
     <t>Manufacturer</t>
   </si>
   <si>
@@ -85,15 +60,9 @@
     <t>18-8 Stainless Steel Washer for Number 4 Screw Size, 0.125" ID, 0.312" OD</t>
   </si>
   <si>
-    <t>https://www1.mcmaster.com/92196A106/</t>
-  </si>
-  <si>
     <t>100 pack</t>
   </si>
   <si>
-    <t>https://www1.mcmaster.com/92141A005/</t>
-  </si>
-  <si>
     <t>Description</t>
   </si>
   <si>
@@ -103,24 +72,12 @@
     <t>pack size</t>
   </si>
   <si>
-    <t>assembly #1</t>
-  </si>
-  <si>
-    <t>push to connect</t>
-  </si>
-  <si>
     <t>Push-to-Connect Tube Fitting for Air; Straight Adapter, for 1/4" Tube OD x 1/8 NPT Male</t>
   </si>
   <si>
     <t>each</t>
   </si>
   <si>
-    <t>proportional valves</t>
-  </si>
-  <si>
-    <t>o-rings</t>
-  </si>
-  <si>
     <t>flow sensors</t>
   </si>
   <si>
@@ -142,48 +99,18 @@
     <t>vial to mixing chamber</t>
   </si>
   <si>
-    <t>order</t>
-  </si>
-  <si>
     <t>9464K721</t>
   </si>
   <si>
     <t>* ordered -051 size, might be -052 tho</t>
   </si>
   <si>
-    <t>https://www1.mcmaster.com/9464K721/</t>
-  </si>
-  <si>
     <t>Chemical-Resistant Viton® Fluoroelastomer O-Ring; 1/16 Fractional Width, Dash Number 051</t>
   </si>
   <si>
-    <t>4-40 x 5/8" screw</t>
-  </si>
-  <si>
-    <t>4-40 x 7/8" screw</t>
-  </si>
-  <si>
-    <t>https://www1.mcmaster.com/5779K108/</t>
-  </si>
-  <si>
     <t>1/8" ID 1/4" OD tubing</t>
   </si>
   <si>
-    <t>luer plug</t>
-  </si>
-  <si>
-    <t>51525K123</t>
-  </si>
-  <si>
-    <t>https://www1.mcmaster.com/51525K123/</t>
-  </si>
-  <si>
-    <t>Plastic Quick-Turn Tube Coupling Plugs, for 1/8" Barbed Tube ID, Nylon</t>
-  </si>
-  <si>
-    <t>10 pack</t>
-  </si>
-  <si>
     <t>main manifold to top cover</t>
   </si>
   <si>
@@ -193,30 +120,12 @@
     <t>main plate</t>
   </si>
   <si>
-    <t>male luer to 1/8" barb</t>
-  </si>
-  <si>
-    <t>4-40 x 3/8" screw</t>
-  </si>
-  <si>
     <t>4-40 hex nuts</t>
   </si>
   <si>
-    <t>4-40 x 1/2" screw</t>
-  </si>
-  <si>
-    <t>M8 screw</t>
-  </si>
-  <si>
     <t>vial holders</t>
   </si>
   <si>
-    <t>4-40 heat set inserts</t>
-  </si>
-  <si>
-    <t>needle</t>
-  </si>
-  <si>
     <t>3D printed</t>
   </si>
   <si>
@@ -241,9 +150,6 @@
     <t>AWM3100V</t>
   </si>
   <si>
-    <t>200sccm flow sensor</t>
-  </si>
-  <si>
     <t>18-8 Stainless Steel Socket Head Screw 4-40 Thread Size, 3/8" Long</t>
   </si>
   <si>
@@ -292,36 +198,18 @@
     <t>10 feet</t>
   </si>
   <si>
-    <t>o-rings (flow sensors)</t>
-  </si>
-  <si>
-    <t>o-rings (prop. Valves)</t>
-  </si>
-  <si>
     <t>Chemical-Resistant Viton® Fluoroelastomer O-Ring 1/16 Fractional Width, Dash Number 008</t>
   </si>
   <si>
     <t>9464K13</t>
   </si>
   <si>
-    <t>o-ring (TC)</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>vials</t>
-  </si>
-  <si>
     <t>Restek</t>
   </si>
   <si>
     <t>21797</t>
   </si>
   <si>
-    <t>fittings &amp; ferrules</t>
-  </si>
-  <si>
     <t>NResearch</t>
   </si>
   <si>
@@ -362,6 +250,99 @@
   </si>
   <si>
     <t>100/Bx</t>
+  </si>
+  <si>
+    <t>main_manifold_8v_v02</t>
+  </si>
+  <si>
+    <t>top_cover_02</t>
+  </si>
+  <si>
+    <t>main_manifold_cover_1v_v02</t>
+  </si>
+  <si>
+    <t>Custom Machined Part</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Input fitting</t>
+  </si>
+  <si>
+    <t>#051 O-ring</t>
+  </si>
+  <si>
+    <t>4-40 washers</t>
+  </si>
+  <si>
+    <t>4-40 x 1/4" screws</t>
+  </si>
+  <si>
+    <t>8-line Olfactometer Main Manifold</t>
+  </si>
+  <si>
+    <t>8-line Olfactometer Top Cover</t>
+  </si>
+  <si>
+    <t>8-line Olfactometer Main Manifold Cover</t>
+  </si>
+  <si>
+    <t>Proportional Valves</t>
+  </si>
+  <si>
+    <t>FKM O-rings</t>
+  </si>
+  <si>
+    <t>4-40 x 5/8" screws</t>
+  </si>
+  <si>
+    <t>mainPlate</t>
+  </si>
+  <si>
+    <t>Main Plate for mounting olfactometer</t>
+  </si>
+  <si>
+    <t>Flow Sensors</t>
+  </si>
+  <si>
+    <t>Air Flow Sensor 200sccm Male, 0.2" (5.08mm) Plastic</t>
+  </si>
+  <si>
+    <t>Male luer to 1/8" barb</t>
+  </si>
+  <si>
+    <t>#008 O-rings</t>
+  </si>
+  <si>
+    <t>4-40 x 7/8" screws</t>
+  </si>
+  <si>
+    <t>4-40 x 3/8" screws</t>
+  </si>
+  <si>
+    <t>4-40 x 1/2" screws</t>
+  </si>
+  <si>
+    <t>M8 screws</t>
+  </si>
+  <si>
+    <t>Fittings &amp; Ferrules</t>
+  </si>
+  <si>
+    <t>Odor Vials</t>
+  </si>
+  <si>
+    <t>21G Needles</t>
+  </si>
+  <si>
+    <t>vialHolder_2v</t>
+  </si>
+  <si>
+    <t>Vial Holder</t>
+  </si>
+  <si>
+    <t>4-40 Heat-set inserts</t>
   </si>
 </sst>
 </file>
@@ -371,7 +352,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -390,6 +371,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -417,7 +412,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -427,6 +422,9 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -709,13 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D5E7A7-AC1F-4965-8EAC-5C6334D1BE92}">
-  <dimension ref="A2:J39"/>
+  <dimension ref="A2:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J11" sqref="J11"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,188 +718,194 @@
     <col min="1" max="1" width="28.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="88.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="4" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" customWidth="1"/>
     <col min="10" max="10" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>4</v>
       </c>
       <c r="H3" s="4">
         <v>5.49</v>
       </c>
       <c r="I3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>75</v>
       </c>
       <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>93</v>
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>93</v>
+        <v>85</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>24</v>
       </c>
       <c r="H6" s="4">
         <v>16.61</v>
       </c>
       <c r="I6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="H7" s="4">
         <v>3.92</v>
       </c>
       <c r="I7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="H8" s="4">
         <v>1.43</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B10" s="1">
         <v>7</v>
@@ -913,16 +914,16 @@
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -933,16 +934,16 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" t="s">
-        <v>68</v>
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -953,21 +954,21 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G12" t="s">
-        <v>69</v>
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1">
         <v>10</v>
@@ -976,13 +977,16 @@
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
+      </c>
+      <c r="F14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -993,30 +997,30 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="H15" s="4">
         <v>5.74</v>
       </c>
       <c r="I15" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1">
         <v>12</v>
@@ -1025,16 +1029,16 @@
         <v>8</v>
       </c>
       <c r="D17" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" t="s">
-        <v>71</v>
+        <v>93</v>
+      </c>
+      <c r="F17" t="s">
+        <v>21</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1042,22 +1046,22 @@
         <v>13</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="3">
+        <v>55</v>
+      </c>
+      <c r="F18" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="3">
         <v>57631</v>
-      </c>
-      <c r="G18" t="s">
-        <v>86</v>
       </c>
       <c r="H18" s="4">
         <v>9.5</v>
       </c>
       <c r="I18" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1068,22 +1072,22 @@
         <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="E19" t="s">
-        <v>80</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" t="s">
-        <v>82</v>
+        <v>51</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="H19" s="4">
         <v>1.3</v>
       </c>
       <c r="I19" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1094,22 +1098,22 @@
         <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G20" t="s">
-        <v>90</v>
+        <v>57</v>
+      </c>
+      <c r="F20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="H20" s="4">
         <v>8.5</v>
       </c>
       <c r="I20" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1120,13 +1124,16 @@
         <v>8</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
+      </c>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1137,22 +1144,22 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" t="s">
-        <v>74</v>
       </c>
       <c r="H22" s="4">
         <v>7.88</v>
       </c>
       <c r="I22" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1163,22 +1170,22 @@
         <v>8</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" t="s">
-        <v>72</v>
+        <v>41</v>
+      </c>
+      <c r="F23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="H23" s="4">
         <v>6.07</v>
       </c>
       <c r="I23" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -1189,30 +1196,30 @@
         <v>8</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="G24" t="s">
-        <v>83</v>
+        <v>52</v>
+      </c>
+      <c r="F24" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="H24" s="4">
         <v>3.89</v>
       </c>
       <c r="I24" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B26" s="1">
         <v>20</v>
@@ -1221,13 +1228,13 @@
         <v>2</v>
       </c>
       <c r="D26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" t="s">
         <v>33</v>
       </c>
-      <c r="E26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>93</v>
+      <c r="G26" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1238,22 +1245,22 @@
         <v>4</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" t="s">
-        <v>76</v>
+        <v>45</v>
+      </c>
+      <c r="F27" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="H27" s="4">
         <v>6.38</v>
       </c>
       <c r="I27" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -1264,12 +1271,12 @@
         <v>2</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1">
         <v>23</v>
@@ -1278,13 +1285,16 @@
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>103</v>
       </c>
       <c r="E30" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>93</v>
+        <v>104</v>
+      </c>
+      <c r="F30" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1295,22 +1305,22 @@
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="E31" t="s">
-        <v>5</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" t="s">
-        <v>78</v>
+        <v>47</v>
+      </c>
+      <c r="F31" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="H31" s="4">
         <v>14.11</v>
       </c>
       <c r="I31" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1321,536 +1331,155 @@
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>5</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="G32" t="s">
-        <v>72</v>
+        <v>41</v>
+      </c>
+      <c r="F32" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="H32" s="4">
         <v>6.07</v>
       </c>
       <c r="I32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="1">
+        <v>26</v>
+      </c>
+      <c r="C34">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" t="s">
+        <v>71</v>
+      </c>
+      <c r="F34" t="s">
+        <v>72</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="H34" s="4">
         <v>20</v>
       </c>
+      <c r="I34" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="1">
-        <v>26</v>
-      </c>
-      <c r="C35">
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B36" s="1">
+        <v>27</v>
+      </c>
+      <c r="C36">
         <v>8</v>
       </c>
-      <c r="D35" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" t="s">
-        <v>109</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G35" t="s">
-        <v>108</v>
-      </c>
-      <c r="H35" s="4">
-        <v>20</v>
-      </c>
-      <c r="I35" t="s">
-        <v>111</v>
+      <c r="D36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H36" s="4">
+        <v>122</v>
+      </c>
+      <c r="I36" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="B37" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>8</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E37" t="s">
-        <v>95</v>
-      </c>
-      <c r="F37" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="G37" t="s">
-        <v>103</v>
+        <v>63</v>
+      </c>
+      <c r="F37" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="H37" s="4">
-        <v>122</v>
+        <v>161.68</v>
       </c>
       <c r="I37" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C38">
         <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="G38" t="s">
-        <v>100</v>
-      </c>
-      <c r="H38" s="4">
-        <v>161.68</v>
-      </c>
-      <c r="I38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B39" s="1">
-        <v>29</v>
-      </c>
-      <c r="C39">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
-        <v>104</v>
-      </c>
-      <c r="E39" t="s">
-        <v>105</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G39" t="s">
-        <v>106</v>
+        <v>69</v>
+      </c>
+      <c r="F38" t="s">
+        <v>68</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{1A708C73-FEA2-4665-B198-D8368765C765}"/>
-    <hyperlink ref="F6" r:id="rId2" xr:uid="{94539E79-7B93-4372-8127-C9E45DFEEEDF}"/>
-    <hyperlink ref="F7" r:id="rId3" xr:uid="{D459AA28-69A2-41B6-BC58-78E988E4D8D7}"/>
-    <hyperlink ref="F8" r:id="rId4" xr:uid="{62FDD13F-D382-422F-A900-03C177B29674}"/>
-    <hyperlink ref="F19" r:id="rId5" xr:uid="{8CA949F1-CCEA-46DF-AD1D-E171CE5BCED6}"/>
-    <hyperlink ref="F23" r:id="rId6" xr:uid="{C3E24C46-E431-405D-99B8-5AD86D718489}"/>
-    <hyperlink ref="F32" r:id="rId7" xr:uid="{3E8CDE35-159C-4E6E-92CF-F04456D62124}"/>
-    <hyperlink ref="F24" r:id="rId8" xr:uid="{4C2950C3-0AD9-4C1F-8DE3-8C56D156ABCF}"/>
-    <hyperlink ref="F27" r:id="rId9" xr:uid="{6E35ABD9-4DC2-47F8-92BB-A6402FDBD1FC}"/>
-    <hyperlink ref="F31" r:id="rId10" xr:uid="{3EBD7269-7BDB-42AE-AFC7-7B7EA8F2C0B4}"/>
-    <hyperlink ref="F22" r:id="rId11" xr:uid="{93DA5889-44CA-4E01-898E-A8B3BF06ADC5}"/>
-    <hyperlink ref="F20" r:id="rId12" xr:uid="{1DAC319B-F683-4969-BEF7-A3C7A42DBCE2}"/>
-    <hyperlink ref="F15" r:id="rId13" xr:uid="{B648ACCC-E578-4883-87FB-641001B75BD9}"/>
-    <hyperlink ref="F37" r:id="rId14" xr:uid="{2D358D06-54B6-4233-8513-A1A5AA0476D1}"/>
-    <hyperlink ref="F38" r:id="rId15" xr:uid="{60263CE3-ED12-4DB7-8A96-83AF8023E69F}"/>
-    <hyperlink ref="F39" r:id="rId16" xr:uid="{AE237205-CB4E-411C-A1DB-73A6058609EC}"/>
-    <hyperlink ref="F35" r:id="rId17" xr:uid="{87F2D46B-9528-45D4-BC8C-6F6DFF2AF2E8}"/>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{1A708C73-FEA2-4665-B198-D8368765C765}"/>
+    <hyperlink ref="G6" r:id="rId2" xr:uid="{94539E79-7B93-4372-8127-C9E45DFEEEDF}"/>
+    <hyperlink ref="G7" r:id="rId3" xr:uid="{D459AA28-69A2-41B6-BC58-78E988E4D8D7}"/>
+    <hyperlink ref="G8" r:id="rId4" xr:uid="{62FDD13F-D382-422F-A900-03C177B29674}"/>
+    <hyperlink ref="G19" r:id="rId5" xr:uid="{8CA949F1-CCEA-46DF-AD1D-E171CE5BCED6}"/>
+    <hyperlink ref="G23" r:id="rId6" xr:uid="{C3E24C46-E431-405D-99B8-5AD86D718489}"/>
+    <hyperlink ref="G32" r:id="rId7" xr:uid="{3E8CDE35-159C-4E6E-92CF-F04456D62124}"/>
+    <hyperlink ref="G24" r:id="rId8" xr:uid="{4C2950C3-0AD9-4C1F-8DE3-8C56D156ABCF}"/>
+    <hyperlink ref="G27" r:id="rId9" xr:uid="{6E35ABD9-4DC2-47F8-92BB-A6402FDBD1FC}"/>
+    <hyperlink ref="G31" r:id="rId10" xr:uid="{3EBD7269-7BDB-42AE-AFC7-7B7EA8F2C0B4}"/>
+    <hyperlink ref="G22" r:id="rId11" xr:uid="{93DA5889-44CA-4E01-898E-A8B3BF06ADC5}"/>
+    <hyperlink ref="G20" r:id="rId12" xr:uid="{1DAC319B-F683-4969-BEF7-A3C7A42DBCE2}"/>
+    <hyperlink ref="G15" r:id="rId13" xr:uid="{B648ACCC-E578-4883-87FB-641001B75BD9}"/>
+    <hyperlink ref="G36" r:id="rId14" xr:uid="{2D358D06-54B6-4233-8513-A1A5AA0476D1}"/>
+    <hyperlink ref="G37" r:id="rId15" xr:uid="{60263CE3-ED12-4DB7-8A96-83AF8023E69F}"/>
+    <hyperlink ref="G38" r:id="rId16" xr:uid="{AE237205-CB4E-411C-A1DB-73A6058609EC}"/>
+    <hyperlink ref="G34" r:id="rId17" xr:uid="{87F2D46B-9528-45D4-BC8C-6F6DFF2AF2E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M32"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="41" customWidth="1"/>
-    <col min="6" max="6" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C7" s="1">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7">
-        <v>5.49</v>
-      </c>
-      <c r="L7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C8" s="1">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8">
-        <v>16.61</v>
-      </c>
-      <c r="L8" t="s">
-        <v>28</v>
-      </c>
-      <c r="M8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C9" s="1">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K9">
-        <v>3.92</v>
-      </c>
-      <c r="L9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C10" s="1">
-        <v>7</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K10">
-        <v>1.43</v>
-      </c>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C13" s="1">
-        <v>8</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C14" s="1">
-        <v>9</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C15" s="1">
-        <v>10</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="1">
-        <v>11</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17">
-        <v>8</v>
-      </c>
-      <c r="G17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C18" s="1">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3</v>
-      </c>
-      <c r="E18" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="1">
-        <v>13</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3</v>
-      </c>
-      <c r="E19" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="E22" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22" t="s">
-        <v>48</v>
-      </c>
-      <c r="I22" t="s">
-        <v>50</v>
-      </c>
-      <c r="J22" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="L22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="1">
-        <v>14</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C25" s="1">
-        <v>15</v>
-      </c>
-      <c r="E25" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>